--- a/biology/Médecine/Syndrome_pseudo-bulbaire/Syndrome_pseudo-bulbaire.xlsx
+++ b/biology/Médecine/Syndrome_pseudo-bulbaire/Syndrome_pseudo-bulbaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un syndrome pseudo-bulbaire désigne l'ensemble de signes ou symptômes retrouvés lors d'une lésion des neurones moteurs
 centraux. Il entraîne des troubles semblables à ceux rencontrés lors d'une atteinte du bulbe rachidien.
@@ -512,15 +524,89 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Que ce soit en français ou en anglais, la même affection est décrite sous des termes variés[1] :
-En français
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Que ce soit en français ou en anglais, la même affection est décrite sous des termes variés :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Syndrome_pseudo-bulbaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_pseudo-bulbaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dysarthrie pseudo-bulbaire ;
 mutisme pseudo-bulbaire ;
 paralysie pseudo-bulbaire ;
 syndrome pseudo-bulbaire.
-En anglais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_pseudo-bulbaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_pseudo-bulbaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En anglais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pseudobulbar dysarthria
 Pseudobulbar mutism
 Pseudobulbar palsies
@@ -534,33 +620,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Syndrome_pseudo-bulbaire</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_pseudo-bulbaire</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Sémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On retrouve le ou les signes d'atteinte bulbaire suivants[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On retrouve le ou les signes d'atteinte bulbaire suivants :
 Rires et pleurs spasmodiques
 Troubles de la déglutition
 Troubles de la phonation (voix nasonnée)
@@ -570,62 +658,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Syndrome_pseudo-bulbaire</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_pseudo-bulbaire</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome pseudo-bulbaire est retrouvé lorsqu'il y a atteinte bilatérale des faisceaux pyramidaux cortico-bulbaires (faisceaux géniculés), provoquant une paralysie des muscles innervés par le bulbe[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome pseudo-bulbaire est retrouvé lorsqu'il y a atteinte bilatérale des faisceaux pyramidaux cortico-bulbaires (faisceaux géniculés), provoquant une paralysie des muscles innervés par le bulbe.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Syndrome_pseudo-bulbaire</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_pseudo-bulbaire</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>État lacunaire
 Paralysie supranucléaire progressive (PSP ou maladie de Steele-Richardson-Olzewsky)
@@ -636,34 +728,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Syndrome_pseudo-bulbaire</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_pseudo-bulbaire</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les antidépresseurs inhibiteurs de la recapture de la sérotonine et de la noradrénaline (IRSNa) et les tricycliques ont été proposés off-label[2].
-L'association dextromethorphan/quinidine (en) (Nuedexta) a été autorisée par la Food and Drug Administration le 30 avril 2010[2],[3] et par l'Agence européenne des médicaments (AEM) le 24 juin 2013[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les antidépresseurs inhibiteurs de la recapture de la sérotonine et de la noradrénaline (IRSNa) et les tricycliques ont été proposés off-label.
+L'association dextromethorphan/quinidine (en) (Nuedexta) a été autorisée par la Food and Drug Administration le 30 avril 2010, et par l'Agence européenne des médicaments (AEM) le 24 juin 2013.
 </t>
         </is>
       </c>
